--- a/Ressources/SherlockList-Fr.xlsx
+++ b/Ressources/SherlockList-Fr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repoPerso\SherlockList\Ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484CDF48-4EF8-4EFB-A871-ECEE71EAEB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C05B33D-4F6C-407D-AA62-0A0DDFCCAA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15F1BAE6-49C7-4576-882E-ECC12398CE1C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="117">
   <si>
     <t>Métrique</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>LCP non priorisé =&gt; ↑ LCP</t>
+  </si>
+  <si>
+    <t>v1.3</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -468,17 +471,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -509,6 +507,12 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -522,15 +526,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B38A0B8A-6721-43C8-8D5F-BBFD6A8F67CE}" name="Table1" displayName="Table1" ref="B2:K37" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B2:K37" xr:uid="{B38A0B8A-6721-43C8-8D5F-BBFD6A8F67CE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K16">
-    <sortCondition ref="B2:B37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B38A0B8A-6721-43C8-8D5F-BBFD6A8F67CE}" name="Table1" displayName="Table1" ref="B3:K38" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B3:K38" xr:uid="{B38A0B8A-6721-43C8-8D5F-BBFD6A8F67CE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K17">
+    <sortCondition ref="B3:B38"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{79CDDC60-16AB-47AE-AA6C-8BD21E32AE51}" name="#"/>
@@ -539,7 +539,7 @@
     <tableColumn id="3" xr3:uid="{0C617FF4-3527-41FE-AF8A-A50BD7CA1D8B}" name="Catégorie"/>
     <tableColumn id="4" xr3:uid="{516845F4-29FA-409E-A46D-84467E6DBCD2}" name="Condition de dégradation "/>
     <tableColumn id="5" xr3:uid="{38AE266C-E19E-41CD-B456-772743C66C4D}" name="Description"/>
-    <tableColumn id="10" xr3:uid="{3434974A-8B9D-47BB-AEF6-91CA6B61352E}" name="Action" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{3434974A-8B9D-47BB-AEF6-91CA6B61352E}" name="Action" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{C4BC4AE2-D8DD-46C9-9B67-4BC1536321EC}" name="Local"/>
     <tableColumn id="7" xr3:uid="{3EA23481-4AC9-47B8-B052-D56714E15458}" name="Synthétique"/>
     <tableColumn id="8" xr3:uid="{D0246CE3-6022-454D-9AA2-D9FF6AF8C884}" name="RUM"/>
@@ -845,11 +845,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A402A5E3-7434-4DD6-B727-6A282C97B0B9}">
-  <dimension ref="B2:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -862,140 +860,125 @@
     <col min="9" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="9">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J5" s="4"/>
+      <c r="K5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1004,67 +987,68 @@
         <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1076,21 +1060,17 @@
         <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -1102,73 +1082,75 @@
         <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="J13" s="6"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1180,47 +1162,45 @@
         <v>40</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1232,68 +1212,77 @@
         <v>40</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="6" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
+        <v>94</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1303,159 +1292,157 @@
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H20" s="1"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>21</v>
+        <v>93</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J28" s="4"/>
+      <c r="K28" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
@@ -1466,87 +1453,80 @@
       <c r="E29" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>30</v>
+      <c r="F29" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>31</v>
+        <v>97</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
         <v>63</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
         <v>63</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J32" s="5"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -1558,13 +1538,21 @@
         <v>63</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -1573,92 +1561,106 @@
         <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="6" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="35" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="5"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
         <v>64</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
         <v>64</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D38" s="2"/>
-      <c r="F38" s="7"/>
-      <c r="H38" s="1"/>
-    </row>
     <row r="39" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
       <c r="F39" s="7"/>
       <c r="H39" s="1"/>
     </row>
@@ -1668,16 +1670,20 @@
     </row>
     <row r="41" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F41" s="7"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F42" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D38">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="D4:D39">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1690,21 +1696,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C3C8D194C97FB041901ECEF8B958E8B2" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="d2aee4ca59832c6f4b2bb11a83d174d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3e05c1f8-a677-4db1-9f84-0b63bd3744f3" xmlns:ns3="41c0e972-f649-40cb-b19b-7ffdacb3e78a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab80182a744336ba29c38b1c5de1d20" ns2:_="" ns3:_="">
     <xsd:import namespace="3e05c1f8-a677-4db1-9f84-0b63bd3744f3"/>
@@ -1895,10 +1886,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B3D52C-E364-4809-9223-802A7066C0F4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CC9DD00-5715-4903-A494-34233A6D1750}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e05c1f8-a677-4db1-9f84-0b63bd3744f3"/>
+    <ds:schemaRef ds:uri="41c0e972-f649-40cb-b19b-7ffdacb3e78a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1921,20 +1938,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CC9DD00-5715-4903-A494-34233A6D1750}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B3D52C-E364-4809-9223-802A7066C0F4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e05c1f8-a677-4db1-9f84-0b63bd3744f3"/>
-    <ds:schemaRef ds:uri="41c0e972-f649-40cb-b19b-7ffdacb3e78a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>